--- a/arquivos/parametros/Modelo_Parametros.xlsx
+++ b/arquivos/parametros/Modelo_Parametros.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felyppe\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA9CC2-CE53-4B63-BE4D-64ACD79A368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Corte" sheetId="1" r:id="rId1"/>
     <sheet name="Merge" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>./arquivos/sem_edicao/preparacao_ambiente.mp4</t>
-  </si>
-  <si>
-    <t>final-aula1.mp4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Nome_Final_Arquivo</t>
   </si>
@@ -50,9 +38,6 @@
     <t>Minuto_Corte</t>
   </si>
   <si>
-    <t>5:00.00</t>
-  </si>
-  <si>
     <t>Nome_Arquivo</t>
   </si>
   <si>
@@ -81,12 +66,24 @@
   </si>
   <si>
     <t>./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT1.mp4;./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT2.mp4;Aula 15 - C# - Estrutura de Repetição.mp4</t>
+  </si>
+  <si>
+    <t>M-AlgoJS - Algoritmos.mp4</t>
+  </si>
+  <si>
+    <t>00:04.00</t>
+  </si>
+  <si>
+    <t>./arquivos/sem_edicao/Aula01.mp4</t>
+  </si>
+  <si>
+    <t>./arquivos/sem_edicao/Aula01.mp4;00:04.00;M-AlgoJS - Algoritmos.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,50 +387,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,";",B2,";",C2)</f>
+        <v>./arquivos/sem_edicao/Aula01.mp4;00:04.00;M-AlgoJS - Algoritmos.mp4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -442,57 +447,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68A565-CEE0-43B8-B15D-FE6D9B91E93A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="162.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="162.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(A2,B2,";",A2,C2,";",D2)</f>
         <v>./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT1.mp4;./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT2.mp4;Aula 15 - C# - Estrutura de Repetição.mp4</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/arquivos/parametros/Modelo_Parametros.xlsx
+++ b/arquivos/parametros/Modelo_Parametros.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Corte" sheetId="1" r:id="rId1"/>
     <sheet name="Merge" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>Nome_Final_Arquivo</t>
   </si>
@@ -38,46 +39,91 @@
     <t>Minuto_Corte</t>
   </si>
   <si>
-    <t>Nome_Arquivo</t>
-  </si>
-  <si>
     <t>Nome_Arquivo_1</t>
   </si>
   <si>
     <t>Nome_Arquivo_2</t>
   </si>
   <si>
-    <t>Aula 15 - C# - Estrutura de Repetição.mp4</t>
-  </si>
-  <si>
-    <t>Aula 15 - C# - Estrutura de Repetição_PT2.mp4</t>
-  </si>
-  <si>
     <t>TXT</t>
   </si>
   <si>
-    <t>Aula 15 - C# - Estrutura de Repetição_PT1.mp4</t>
-  </si>
-  <si>
     <t>caminho_Arquivo</t>
   </si>
   <si>
     <t>./arquivos/sem_edicao/</t>
   </si>
   <si>
-    <t>./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT1.mp4;./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT2.mp4;Aula 15 - C# - Estrutura de Repetição.mp4</t>
-  </si>
-  <si>
-    <t>M-AlgoJS - Algoritmos.mp4</t>
-  </si>
-  <si>
-    <t>00:04.00</t>
-  </si>
-  <si>
-    <t>./arquivos/sem_edicao/Aula01.mp4</t>
-  </si>
-  <si>
-    <t>./arquivos/sem_edicao/Aula01.mp4;00:04.00;M-AlgoJS - Algoritmos.mp4</t>
+    <t>Caminho_Arquivo</t>
+  </si>
+  <si>
+    <t>Nome_arquivo</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4</t>
+  </si>
+  <si>
+    <t>Nome_Modulo</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 03 - Operadores.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 04 - Tabela Verdade.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 14 - Vetor.mp4</t>
+  </si>
+  <si>
+    <t>Algoritmo_JS - Aula 15 - Funções.mp4</t>
+  </si>
+  <si>
+    <t>00:05.00</t>
+  </si>
+  <si>
+    <t>vinheta_Inicio.mp4</t>
+  </si>
+  <si>
+    <t>./arquivos/vinhetas/</t>
+  </si>
+  <si>
+    <t>vinheta_exercicios.mp4</t>
   </si>
 </sst>
 </file>
@@ -395,50 +441,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="185.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE("./arquivos/sem_edicao/",A2)</f>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(D2,A2)</f>
+        <v>Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(B2,";",C2,";",E2)</f>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4;00:05.00;Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE("./arquivos/sem_edicao/",A3)</f>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E18" si="0">CONCATENATE(D3,A3)</f>
+        <v>Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F18" si="1">CONCATENATE(B3,";",C3,";",E3)</f>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4;00:05.00;Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B18" si="2">CONCATENATE("./arquivos/sem_edicao/",A4)</f>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4;00:05.00;Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 03 - Operadores.mp4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 03 - Operadores.mp4</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 03 - Operadores.mp4;00:05.00;Algoritmo_JS - Aula 03 - Operadores.mp4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE(A2,";",B2,";",C2)</f>
-        <v>./arquivos/sem_edicao/Aula01.mp4;00:04.00;M-AlgoJS - Algoritmos.mp4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 04 - Tabela Verdade.mp4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 04 - Tabela Verdade.mp4</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 04 - Tabela Verdade.mp4;00:05.00;Algoritmo_JS - Aula 04 - Tabela Verdade.mp4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4;00:05.00;Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4;00:05.00;Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4;00:05.00;Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4;00:05.00;Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4;00:05.00;Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4;00:05.00;Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4;00:05.00;Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4;00:05.00;Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4;00:05.00;Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4;00:05.00;Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 14 - Vetor.mp4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 14 - Vetor.mp4</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 14 - Vetor.mp4;00:05.00;Algoritmo_JS - Aula 14 - Vetor.mp4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 15 - Funções.mp4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 15 - Funções.mp4</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/Algoritmo_JS - Aula 15 - Funções.mp4;00:05.00;Algoritmo_JS - Aula 15 - Funções.mp4</v>
       </c>
     </row>
   </sheetData>
@@ -448,59 +823,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="162.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="217.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="str">
+        <f>C2</f>
+        <v>Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(A2,B2,";",A2,C2,";",D2)</f>
-        <v>./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT1.mp4;./arquivos/sem_edicao/Aula 15 - C# - Estrutura de Repetição_PT2.mp4;Aula 15 - C# - Estrutura de Repetição.mp4</v>
-      </c>
-      <c r="F2" t="s">
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4;Algoritmo_JS - Aula 01 - PT01 - Algoritmos.mp4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D19" si="0">C3</f>
+        <v>Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E19" si="1">CONCATENATE(A3,B3,";",A3,C3,";",D3)</f>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4;Algoritmo_JS - Aula 01 - PT02 - Sintaxe e Semantica.mp4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4;Algoritmo_JS - Aula 02 - Tipos de Dados - Variáveis vs Constantes.mp4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 03 - Operadores.mp4</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 03 - Operadores.mp4;Algoritmo_JS - Aula 03 - Operadores.mp4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 04 - Tabela Verdade.mp4</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 04 - Tabela Verdade.mp4;Algoritmo_JS - Aula 04 - Tabela Verdade.mp4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4;Algoritmo_JS - Aula 05 - Fluxograma - Entrada - Processamento e Saída de Dados.mp4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4;Algoritmo_JS - Aula 06 - Fluxograma - Estrutura Sequencial.mp4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4;Algoritmo_JS - Aula 07 - Fluxograma - Estrutura Condicional.mp4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4;Algoritmo_JS - Aula 08 - Fluxograma - Estrutura de Repetição.mp4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4;Algoritmo_JS - Aula 09 - PT01 - Introdução ao Javascript.mp4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4;Algoritmo_JS - Aula 09 - PT02 - Introdução ao Javascript.mp4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4;Algoritmo_JS - Aula 10 - Variáveis e Operadores.mp4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4;Algoritmo_JS - Aula 11 - Estrutura Sequencial.mp4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4;Algoritmo_JS - Aula 12 - Estrutura Condicional.mp4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4;Algoritmo_JS - Aula 13 - Estrutura de Repetição.mp4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 14 - Vetor.mp4</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 14 - Vetor.mp4;Algoritmo_JS - Aula 14 - Vetor.mp4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Algoritmo_JS - Aula 15 - Funções.mp4</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/sem_edicao/vinheta_Inicio.mp4;./arquivos/sem_edicao/Algoritmo_JS - Aula 15 - Funções.mp4;Algoritmo_JS - Aula 15 - Funções.mp4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>vinheta_exercicios.mp4</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>./arquivos/vinhetas/vinheta_Inicio.mp4;./arquivos/vinhetas/vinheta_exercicios.mp4;vinheta_exercicios.mp4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>